--- a/ApolloQA/Data/RatingManual/GA/OR00013.MinimumRatingValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00013.MinimumRatingValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00013.MinimumRatingValueFactors" sheetId="1" r:id="Rd4dbc5b0a228448e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00013.MinimumRatingValueFactors" sheetId="1" r:id="Rddf6428db1e64289"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,258 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Minimum Rating Value</x:v>
+        <x:v>Combined Single Limit</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
         <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8786</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$15,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9143</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9571</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1208</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$35,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1462</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1780</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2162</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2543</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$55,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2973</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3403</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$65,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3834</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$70,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4264</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$75,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4694</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5071</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$85,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5447</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$90,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5824</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6201</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6577</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$125,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.8059</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$150,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9302</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$200,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1252</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2868</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.4226</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$350,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5526</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$400,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.6836</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8690</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$600,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.9541</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$750,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.1233</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.3470</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
